--- a/va_facility_data_2025-02-20/Stillwater VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Stillwater%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Stillwater VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Stillwater%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4f0498bffedb43c495094793cd23d870"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R07e5ce073a6b4c87bf7ba2d7b89bcfea"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra21fc405cc4e4b1098316564b8c39d4e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R46deccdc831342f4926c8f59f7972088"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3aff0b01528a40f3be10a82982a589b9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6f5302c82275430b89cd208e2817befa"/>
   </x:sheets>
 </x:workbook>
 </file>
